--- a/10g/test12345.xlsx
+++ b/10g/test12345.xlsx
@@ -230,24 +230,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63408000"/>
-        <c:axId val="63409536"/>
+        <c:axId val="123682176"/>
+        <c:axId val="125863040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63408000"/>
+        <c:axId val="123682176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63409536"/>
+        <c:crossAx val="125863040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63409536"/>
+        <c:axId val="125863040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,7 +255,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63408000"/>
+        <c:crossAx val="123682176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -268,7 +268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -433,24 +433,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64775296"/>
-        <c:axId val="64844160"/>
+        <c:axId val="125891712"/>
+        <c:axId val="125893248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64775296"/>
+        <c:axId val="125891712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64844160"/>
+        <c:crossAx val="125893248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64844160"/>
+        <c:axId val="125893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +458,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64775296"/>
+        <c:crossAx val="125891712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -471,7 +471,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -636,24 +636,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118337920"/>
-        <c:axId val="118339840"/>
+        <c:axId val="156715648"/>
+        <c:axId val="156725632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118337920"/>
+        <c:axId val="156715648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118339840"/>
+        <c:crossAx val="156725632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118339840"/>
+        <c:axId val="156725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +661,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118337920"/>
+        <c:crossAx val="156715648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,7 +674,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -839,24 +839,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137344512"/>
-        <c:axId val="137346048"/>
+        <c:axId val="156746112"/>
+        <c:axId val="156747648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137344512"/>
+        <c:axId val="156746112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137346048"/>
+        <c:crossAx val="156747648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137346048"/>
+        <c:axId val="156747648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +864,210 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137344512"/>
+        <c:crossAx val="156746112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fo-FO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$86:$Q$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wolf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$B$87:$Q$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="168857984"/>
+        <c:axId val="168859520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="168857984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168859520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168859520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168857984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,6 +1203,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1295,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/10g/test12345.xlsx
+++ b/10g/test12345.xlsx
@@ -75,6 +75,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fo-FO"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fo-FO"/>
+              <a:t>input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fo-FO" baseline="0"/>
+              <a:t> 10, 2, 2, 2, 2, 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fo-FO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -230,24 +253,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123682176"/>
-        <c:axId val="125863040"/>
+        <c:axId val="125058432"/>
+        <c:axId val="158041216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123682176"/>
+        <c:axId val="125058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125863040"/>
+        <c:crossAx val="158041216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125863040"/>
+        <c:axId val="158041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,7 +278,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123682176"/>
+        <c:crossAx val="125058432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -268,9 +291,10 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -278,6 +302,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fo-FO"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fo-FO"/>
+              <a:t>Input 10, 10,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fo-FO" baseline="0"/>
+              <a:t> 2, 2, 2, 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="fo-FO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -433,24 +480,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125891712"/>
-        <c:axId val="125893248"/>
+        <c:axId val="158069888"/>
+        <c:axId val="158071424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125891712"/>
+        <c:axId val="158069888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125893248"/>
+        <c:crossAx val="158071424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125893248"/>
+        <c:axId val="158071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +505,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125891712"/>
+        <c:crossAx val="158069888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -471,7 +518,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -481,6 +528,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fo-FO"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fo-FO"/>
+              <a:t>Input 10, 2, 10,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fo-FO" baseline="0"/>
+              <a:t> 2, 2, 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="fo-FO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -636,24 +706,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="156715648"/>
-        <c:axId val="156725632"/>
+        <c:axId val="158091904"/>
+        <c:axId val="158101888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156715648"/>
+        <c:axId val="158091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156725632"/>
+        <c:crossAx val="158101888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156725632"/>
+        <c:axId val="158101888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +731,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156715648"/>
+        <c:crossAx val="158091904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,7 +744,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -684,6 +754,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fo-FO"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fo-FO"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fo-FO" baseline="0"/>
+              <a:t> 10, 10, 10, 2, 2, 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="fo-FO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -839,24 +932,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="156746112"/>
-        <c:axId val="156747648"/>
+        <c:axId val="158122368"/>
+        <c:axId val="158123904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156746112"/>
+        <c:axId val="158122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156747648"/>
+        <c:crossAx val="158123904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156747648"/>
+        <c:axId val="158123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +957,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156746112"/>
+        <c:crossAx val="158122368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,7 +970,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -887,6 +980,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="fo-FO"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fo-FO"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fo-FO" baseline="0"/>
+              <a:t> 10, 10, 10, 2, 10, 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="fo-FO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1042,24 +1158,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="168857984"/>
-        <c:axId val="168859520"/>
+        <c:axId val="158287744"/>
+        <c:axId val="158289280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168857984"/>
+        <c:axId val="158287744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168859520"/>
+        <c:crossAx val="158289280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168859520"/>
+        <c:axId val="158289280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1183,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168857984"/>
+        <c:crossAx val="158287744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1196,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1239,6 +1355,43 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8</cdr:x>
+      <cdr:y>0.09375</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.42708</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstboks 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3943350" y="257175"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fo-FO" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1528,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
